--- a/dmsan/newgen/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/China/sys_uncertainties.xlsx
@@ -31925,7 +31925,7 @@
         <v>2.661353244156534</v>
       </c>
       <c r="I6" t="n">
-        <v>29.78591637236291</v>
+        <v>29.78591637236292</v>
       </c>
     </row>
     <row r="7">

--- a/dmsan/newgen/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/China/sys_uncertainties.xlsx
@@ -32782,16 +32782,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1048662936494173</v>
+        <v>0.1043218496973607</v>
       </c>
       <c r="G4" t="n">
-        <v>6.937874451493005</v>
+        <v>6.931831133992607</v>
       </c>
       <c r="H4" t="n">
-        <v>7.938424648282922</v>
+        <v>7.911034768207018</v>
       </c>
       <c r="I4" t="n">
-        <v>67.7230711788564</v>
+        <v>67.60249510542931</v>
       </c>
     </row>
     <row r="5">
@@ -32799,28 +32799,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.66318340671936</v>
+        <v>56.66318340671934</v>
       </c>
       <c r="C5" t="n">
         <v>48.9834831801393</v>
       </c>
       <c r="D5" t="n">
-        <v>38.4026379468401</v>
+        <v>38.40263794684009</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2794507575951637</v>
+        <v>0.2785523097587129</v>
       </c>
       <c r="G5" t="n">
-        <v>12.85233930535596</v>
+        <v>12.84054383004565</v>
       </c>
       <c r="H5" t="n">
-        <v>15.97866632474709</v>
+        <v>15.93387080332927</v>
       </c>
       <c r="I5" t="n">
-        <v>123.5245817740809</v>
+        <v>123.2651738480621</v>
       </c>
     </row>
     <row r="6">
@@ -32840,16 +32840,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.188112205443684</v>
+        <v>0.1875077763882489</v>
       </c>
       <c r="G6" t="n">
-        <v>21.77093676410401</v>
+        <v>21.76328936375396</v>
       </c>
       <c r="H6" t="n">
-        <v>11.82462048705428</v>
+        <v>11.79218738661476</v>
       </c>
       <c r="I6" t="n">
-        <v>94.04903145007087</v>
+        <v>93.8625374492122</v>
       </c>
     </row>
     <row r="7">
@@ -32860,7 +32860,7 @@
         <v>46.79922255210388</v>
       </c>
       <c r="C7" t="n">
-        <v>32.99391502579984</v>
+        <v>32.99391502579982</v>
       </c>
       <c r="D7" t="n">
         <v>20.76504167731373</v>
@@ -32869,16 +32869,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1505847773569634</v>
+        <v>0.1502519519340263</v>
       </c>
       <c r="G7" t="n">
-        <v>9.44968124920576</v>
+        <v>9.445965879961674</v>
       </c>
       <c r="H7" t="n">
-        <v>8.602344454373462</v>
+        <v>8.588200767512852</v>
       </c>
       <c r="I7" t="n">
-        <v>85.96323677167284</v>
+        <v>85.87429293931953</v>
       </c>
     </row>
     <row r="8">
@@ -32898,16 +32898,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09322511488138384</v>
+        <v>0.09233036300708733</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3338474715225</v>
+        <v>14.32317181993127</v>
       </c>
       <c r="H8" t="n">
-        <v>6.699332744870682</v>
+        <v>6.653489438631039</v>
       </c>
       <c r="I8" t="n">
-        <v>63.18103217464743</v>
+        <v>62.95052926875944</v>
       </c>
     </row>
     <row r="9">
@@ -32927,16 +32927,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1826129523974101</v>
+        <v>0.1816150043140526</v>
       </c>
       <c r="G9" t="n">
-        <v>12.91822168557905</v>
+        <v>12.90727736454832</v>
       </c>
       <c r="H9" t="n">
-        <v>9.405747935659354</v>
+        <v>9.363081924368363</v>
       </c>
       <c r="I9" t="n">
-        <v>81.667254684722</v>
+        <v>81.42839444885267</v>
       </c>
     </row>
     <row r="10">
@@ -32947,25 +32947,25 @@
         <v>41.14093720713825</v>
       </c>
       <c r="C10" t="n">
-        <v>27.38353052111379</v>
+        <v>27.38353052111378</v>
       </c>
       <c r="D10" t="n">
-        <v>20.95456158112782</v>
+        <v>20.95456158112781</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1282764090409471</v>
+        <v>0.1275907682079688</v>
       </c>
       <c r="G10" t="n">
-        <v>11.47698659254468</v>
+        <v>11.46848869633692</v>
       </c>
       <c r="H10" t="n">
-        <v>8.419378750362531</v>
+        <v>8.383132979300242</v>
       </c>
       <c r="I10" t="n">
-        <v>71.83507569609672</v>
+        <v>71.65629097091391</v>
       </c>
     </row>
     <row r="11">
@@ -32973,28 +32973,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>60.02865287104694</v>
+        <v>60.02865287104693</v>
       </c>
       <c r="C11" t="n">
-        <v>59.17719966151722</v>
+        <v>59.1771996615172</v>
       </c>
       <c r="D11" t="n">
-        <v>43.33356568551055</v>
+        <v>43.33356568551054</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3108682444566334</v>
+        <v>0.3104972135717011</v>
       </c>
       <c r="G11" t="n">
-        <v>18.15093993728619</v>
+        <v>18.14627339412494</v>
       </c>
       <c r="H11" t="n">
-        <v>18.86178347536581</v>
+        <v>18.84346729537693</v>
       </c>
       <c r="I11" t="n">
-        <v>149.9217946563523</v>
+        <v>149.805610459436</v>
       </c>
     </row>
     <row r="12">
@@ -33008,22 +33008,22 @@
         <v>28.99907521150783</v>
       </c>
       <c r="D12" t="n">
-        <v>18.66786662322481</v>
+        <v>18.6678666232248</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1404393180699231</v>
+        <v>0.1396444996376504</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1408609652718</v>
+        <v>12.13203132994161</v>
       </c>
       <c r="H12" t="n">
-        <v>7.893926055274035</v>
+        <v>7.856961560938256</v>
       </c>
       <c r="I12" t="n">
-        <v>68.57919769012756</v>
+        <v>68.38445209758612</v>
       </c>
     </row>
     <row r="13">
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1827425767419764</v>
+        <v>0.1820469010507466</v>
       </c>
       <c r="G13" t="n">
-        <v>16.28762611739615</v>
+        <v>16.27986083454413</v>
       </c>
       <c r="H13" t="n">
-        <v>10.9065416642833</v>
+        <v>10.87292382812919</v>
       </c>
       <c r="I13" t="n">
-        <v>77.85015342525156</v>
+        <v>77.68909858329313</v>
       </c>
     </row>
     <row r="14">
@@ -33060,7 +33060,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.11470359964838</v>
+        <v>55.11470359964837</v>
       </c>
       <c r="C14" t="n">
         <v>26.48550137185867</v>
@@ -33072,16 +33072,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2214419629460607</v>
+        <v>0.2210469701598947</v>
       </c>
       <c r="G14" t="n">
-        <v>8.167330618158427</v>
+        <v>8.162240130250522</v>
       </c>
       <c r="H14" t="n">
-        <v>12.53598990410607</v>
+        <v>12.5169896780025</v>
       </c>
       <c r="I14" t="n">
-        <v>88.18782634193499</v>
+        <v>88.09419678091912</v>
       </c>
     </row>
     <row r="15">
@@ -33089,28 +33089,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.51099219815676</v>
+        <v>45.51099219815674</v>
       </c>
       <c r="C15" t="n">
-        <v>48.63211421420664</v>
+        <v>48.63211421420661</v>
       </c>
       <c r="D15" t="n">
-        <v>21.62276852364467</v>
+        <v>21.62276852364466</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1208119709256253</v>
+        <v>0.1202872830216407</v>
       </c>
       <c r="G15" t="n">
-        <v>12.03278456045028</v>
+        <v>12.02517310852073</v>
       </c>
       <c r="H15" t="n">
-        <v>8.705473207788621</v>
+        <v>8.677845031118531</v>
       </c>
       <c r="I15" t="n">
-        <v>81.79072488992688</v>
+        <v>81.60858019058877</v>
       </c>
     </row>
     <row r="16">
@@ -33118,7 +33118,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>57.02402693686465</v>
+        <v>57.02402693686466</v>
       </c>
       <c r="C16" t="n">
         <v>29.41010875322917</v>
@@ -33130,16 +33130,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1891360003117192</v>
+        <v>0.1886860439152435</v>
       </c>
       <c r="G16" t="n">
-        <v>16.32758829002117</v>
+        <v>16.32154536545378</v>
       </c>
       <c r="H16" t="n">
-        <v>10.25238882309043</v>
+        <v>10.23097220562901</v>
       </c>
       <c r="I16" t="n">
-        <v>92.43164434829589</v>
+        <v>92.28489221080621</v>
       </c>
     </row>
     <row r="17">
@@ -33159,16 +33159,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2211087187887958</v>
+        <v>0.2207647040920435</v>
       </c>
       <c r="G17" t="n">
-        <v>11.10211292436089</v>
+        <v>11.09779300098287</v>
       </c>
       <c r="H17" t="n">
-        <v>13.60129026742517</v>
+        <v>13.58373754214308</v>
       </c>
       <c r="I17" t="n">
-        <v>87.75777669002295</v>
+        <v>87.68138813588524</v>
       </c>
     </row>
     <row r="18">
@@ -33179,7 +33179,7 @@
         <v>62.89547303229336</v>
       </c>
       <c r="C18" t="n">
-        <v>36.75246970984651</v>
+        <v>36.7524697098465</v>
       </c>
       <c r="D18" t="n">
         <v>21.40197844608306</v>
@@ -33188,16 +33188,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1333499284128505</v>
+        <v>0.132882259247651</v>
       </c>
       <c r="G18" t="n">
-        <v>6.900097973984535</v>
+        <v>6.894311230512897</v>
       </c>
       <c r="H18" t="n">
-        <v>9.467700458871327</v>
+        <v>9.444582116801742</v>
       </c>
       <c r="I18" t="n">
-        <v>69.04998821652072</v>
+        <v>68.94312721395897</v>
       </c>
     </row>
     <row r="19">
@@ -33217,16 +33217,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1439036146386102</v>
+        <v>0.1433352512900181</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13705809078118</v>
+        <v>22.12928507704888</v>
       </c>
       <c r="H19" t="n">
-        <v>9.626478849124551</v>
+        <v>9.594962455831201</v>
       </c>
       <c r="I19" t="n">
-        <v>73.25845085158589</v>
+        <v>73.11279749634811</v>
       </c>
     </row>
     <row r="20">
@@ -33237,7 +33237,7 @@
         <v>55.28382386530438</v>
       </c>
       <c r="C20" t="n">
-        <v>45.88982572308112</v>
+        <v>45.88982572308111</v>
       </c>
       <c r="D20" t="n">
         <v>21.62635955077501</v>
@@ -33246,16 +33246,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1371779864425178</v>
+        <v>0.1364281782028425</v>
       </c>
       <c r="G20" t="n">
-        <v>19.29173785264818</v>
+        <v>19.28267748738538</v>
       </c>
       <c r="H20" t="n">
-        <v>8.144750489845334</v>
+        <v>8.110237533298401</v>
       </c>
       <c r="I20" t="n">
-        <v>70.40180502104081</v>
+        <v>70.22095769823362</v>
       </c>
     </row>
     <row r="21">
@@ -33263,7 +33263,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.92659596012754</v>
+        <v>66.92659596012756</v>
       </c>
       <c r="C21" t="n">
         <v>58.17856079522817</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2467632604891594</v>
+        <v>0.2460153012087683</v>
       </c>
       <c r="G21" t="n">
-        <v>19.46399772106938</v>
+        <v>19.45389578520902</v>
       </c>
       <c r="H21" t="n">
-        <v>14.32899268348302</v>
+        <v>14.29158324321402</v>
       </c>
       <c r="I21" t="n">
-        <v>92.09686217112116</v>
+        <v>91.92470153513652</v>
       </c>
     </row>
     <row r="22">
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09644539899718732</v>
+        <v>0.09569439246207696</v>
       </c>
       <c r="G22" t="n">
-        <v>12.52772671876899</v>
+        <v>12.51848522931611</v>
       </c>
       <c r="H22" t="n">
-        <v>7.652510723317635</v>
+        <v>7.610237478771711</v>
       </c>
       <c r="I22" t="n">
-        <v>66.4237756056899</v>
+        <v>66.19696505655875</v>
       </c>
     </row>
     <row r="23">
@@ -33324,7 +33324,7 @@
         <v>50.29901465362654</v>
       </c>
       <c r="C23" t="n">
-        <v>53.18402154995243</v>
+        <v>53.18402154995244</v>
       </c>
       <c r="D23" t="n">
         <v>23.8755842652072</v>
@@ -33333,16 +33333,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1993120347654515</v>
+        <v>0.1988282150543257</v>
       </c>
       <c r="G23" t="n">
-        <v>18.21683032874072</v>
+        <v>18.21080268834731</v>
       </c>
       <c r="H23" t="n">
-        <v>10.60167009829459</v>
+        <v>10.57945925328936</v>
       </c>
       <c r="I23" t="n">
-        <v>93.96077317632306</v>
+        <v>93.82328033381016</v>
       </c>
     </row>
   </sheetData>
@@ -64365,16 +64365,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447546122257001</v>
+        <v>0.1442101682736435</v>
       </c>
       <c r="G4" t="n">
-        <v>7.654070100063592</v>
+        <v>7.648026782563195</v>
       </c>
       <c r="H4" t="n">
-        <v>8.446434640804039</v>
+        <v>8.419044760728134</v>
       </c>
       <c r="I4" t="n">
-        <v>65.59692331205569</v>
+        <v>65.47634723862859</v>
       </c>
     </row>
     <row r="5">
@@ -64382,28 +64382,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.66318340671936</v>
+        <v>56.66318340671934</v>
       </c>
       <c r="C5" t="n">
         <v>48.9834831801393</v>
       </c>
       <c r="D5" t="n">
-        <v>38.4026379468401</v>
+        <v>38.40263794684009</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.316368891672099</v>
+        <v>0.3154704438356482</v>
       </c>
       <c r="G5" t="n">
-        <v>13.65507605081231</v>
+        <v>13.643280575502</v>
       </c>
       <c r="H5" t="n">
-        <v>16.46975838121993</v>
+        <v>16.42496285980211</v>
       </c>
       <c r="I5" t="n">
-        <v>121.8993816454488</v>
+        <v>121.6399737194301</v>
       </c>
     </row>
     <row r="6">
@@ -64423,16 +64423,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2276670098218546</v>
+        <v>0.2270625807664196</v>
       </c>
       <c r="G6" t="n">
-        <v>22.46296512661633</v>
+        <v>22.45531772626628</v>
       </c>
       <c r="H6" t="n">
-        <v>12.30472337366791</v>
+        <v>12.2722902732284</v>
       </c>
       <c r="I6" t="n">
-        <v>92.61095458452017</v>
+        <v>92.42446058366147</v>
       </c>
     </row>
     <row r="7">
@@ -64443,7 +64443,7 @@
         <v>46.79922255210388</v>
       </c>
       <c r="C7" t="n">
-        <v>32.99391502579984</v>
+        <v>32.99391502579982</v>
       </c>
       <c r="D7" t="n">
         <v>20.76504167731373</v>
@@ -64452,16 +64452,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1877023829486534</v>
+        <v>0.1873695575257164</v>
       </c>
       <c r="G7" t="n">
-        <v>10.27957844867651</v>
+        <v>10.27586307943243</v>
       </c>
       <c r="H7" t="n">
-        <v>9.090956388144868</v>
+        <v>9.076812701284256</v>
       </c>
       <c r="I7" t="n">
-        <v>84.27119922490012</v>
+        <v>84.18225539254681</v>
       </c>
     </row>
     <row r="8">
@@ -64481,16 +64481,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.132560853367412</v>
+        <v>0.1316661014931154</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10709155988284</v>
+        <v>15.09641590829161</v>
       </c>
       <c r="H8" t="n">
-        <v>7.218089510288658</v>
+        <v>7.172246204049016</v>
       </c>
       <c r="I8" t="n">
-        <v>61.15733807092862</v>
+        <v>60.92683516504063</v>
       </c>
     </row>
     <row r="9">
@@ -64510,16 +64510,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2183431327480357</v>
+        <v>0.2173451846646783</v>
       </c>
       <c r="G9" t="n">
-        <v>13.69539588369529</v>
+        <v>13.68445156266456</v>
       </c>
       <c r="H9" t="n">
-        <v>9.852667814525857</v>
+        <v>9.810001803234865</v>
       </c>
       <c r="I9" t="n">
-        <v>79.71056840824991</v>
+        <v>79.47170817238054</v>
       </c>
     </row>
     <row r="10">
@@ -64530,25 +64530,25 @@
         <v>41.14093720713825</v>
       </c>
       <c r="C10" t="n">
-        <v>27.38353052111379</v>
+        <v>27.38353052111378</v>
       </c>
       <c r="D10" t="n">
-        <v>20.95456158112782</v>
+        <v>20.95456158112781</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1676556641644013</v>
+        <v>0.166970023331423</v>
       </c>
       <c r="G10" t="n">
-        <v>12.17632643426252</v>
+        <v>12.16782853805476</v>
       </c>
       <c r="H10" t="n">
-        <v>8.912897932135611</v>
+        <v>8.876652161073322</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57913996866633</v>
+        <v>70.40035524348353</v>
       </c>
     </row>
     <row r="11">
@@ -64556,28 +64556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>60.02865287104694</v>
+        <v>60.02865287104693</v>
       </c>
       <c r="C11" t="n">
-        <v>59.17719966151722</v>
+        <v>59.1771996615172</v>
       </c>
       <c r="D11" t="n">
-        <v>43.33356568551055</v>
+        <v>43.33356568551054</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3502145190161397</v>
+        <v>0.3498434881312074</v>
       </c>
       <c r="G11" t="n">
-        <v>18.90673784854101</v>
+        <v>18.90207130537975</v>
       </c>
       <c r="H11" t="n">
-        <v>19.3988570197318</v>
+        <v>19.38054083974292</v>
       </c>
       <c r="I11" t="n">
-        <v>148.2176161783242</v>
+        <v>148.1014319814079</v>
       </c>
     </row>
     <row r="12">
@@ -64591,22 +64591,22 @@
         <v>28.99907521150783</v>
       </c>
       <c r="D12" t="n">
-        <v>18.66786662322481</v>
+        <v>18.6678666232248</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1780813236176373</v>
+        <v>0.1772865051853647</v>
       </c>
       <c r="G12" t="n">
-        <v>12.83201501685933</v>
+        <v>12.82318538152914</v>
       </c>
       <c r="H12" t="n">
-        <v>8.391403090274714</v>
+        <v>8.354438595938934</v>
       </c>
       <c r="I12" t="n">
-        <v>66.76509745995361</v>
+        <v>66.57035186741219</v>
       </c>
     </row>
     <row r="13">
@@ -64626,16 +64626,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2174922612268507</v>
+        <v>0.2167965855356208</v>
       </c>
       <c r="G13" t="n">
-        <v>17.03300870247715</v>
+        <v>17.02524341962513</v>
       </c>
       <c r="H13" t="n">
-        <v>11.35682740787967</v>
+        <v>11.32320957172557</v>
       </c>
       <c r="I13" t="n">
-        <v>76.25369920447213</v>
+        <v>76.0926443625137</v>
       </c>
     </row>
     <row r="14">
@@ -64643,7 +64643,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.11470359964838</v>
+        <v>55.11470359964837</v>
       </c>
       <c r="C14" t="n">
         <v>26.48550137185867</v>
@@ -64655,16 +64655,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2609934388971097</v>
+        <v>0.2605984461109437</v>
       </c>
       <c r="G14" t="n">
-        <v>8.944099163530122</v>
+        <v>8.939008675622217</v>
       </c>
       <c r="H14" t="n">
-        <v>13.03338673820127</v>
+        <v>13.01438651209772</v>
       </c>
       <c r="I14" t="n">
-        <v>86.77141569723182</v>
+        <v>86.67778613621593</v>
       </c>
     </row>
     <row r="15">
@@ -64672,28 +64672,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.51099219815676</v>
+        <v>45.51099219815674</v>
       </c>
       <c r="C15" t="n">
-        <v>48.63211421420664</v>
+        <v>48.63211421420661</v>
       </c>
       <c r="D15" t="n">
-        <v>21.62276852364467</v>
+        <v>21.62276852364466</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1581786263294432</v>
+        <v>0.1576539384254586</v>
       </c>
       <c r="G15" t="n">
-        <v>12.82332993478155</v>
+        <v>12.81571848285201</v>
       </c>
       <c r="H15" t="n">
-        <v>9.188158787657047</v>
+        <v>9.160530610986957</v>
       </c>
       <c r="I15" t="n">
-        <v>80.23358491064627</v>
+        <v>80.05144021130818</v>
       </c>
     </row>
     <row r="16">
@@ -64701,7 +64701,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>57.02402693686465</v>
+        <v>57.02402693686466</v>
       </c>
       <c r="C16" t="n">
         <v>29.41010875322917</v>
@@ -64713,16 +64713,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2258201548455672</v>
+        <v>0.2253701984490915</v>
       </c>
       <c r="G16" t="n">
-        <v>17.03391671361192</v>
+        <v>17.02787378904453</v>
       </c>
       <c r="H16" t="n">
-        <v>10.73680275835064</v>
+        <v>10.71538614088922</v>
       </c>
       <c r="I16" t="n">
-        <v>90.88647684940652</v>
+        <v>90.73972471191686</v>
       </c>
     </row>
     <row r="17">
@@ -64742,16 +64742,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2572969067715211</v>
+        <v>0.2569528920747687</v>
       </c>
       <c r="G17" t="n">
-        <v>11.89548459501316</v>
+        <v>11.89116467163514</v>
       </c>
       <c r="H17" t="n">
-        <v>14.06316249526972</v>
+        <v>14.04560976998763</v>
       </c>
       <c r="I17" t="n">
-        <v>85.73785741951264</v>
+        <v>85.66146886537494</v>
       </c>
     </row>
     <row r="18">
@@ -64762,7 +64762,7 @@
         <v>62.89547303229336</v>
       </c>
       <c r="C18" t="n">
-        <v>36.75246970984651</v>
+        <v>36.7524697098465</v>
       </c>
       <c r="D18" t="n">
         <v>21.40197844608306</v>
@@ -64771,16 +64771,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1710766258804186</v>
+        <v>0.1706089567152192</v>
       </c>
       <c r="G18" t="n">
-        <v>7.730951168565587</v>
+        <v>7.725164425093949</v>
       </c>
       <c r="H18" t="n">
-        <v>9.934435288976896</v>
+        <v>9.911316946907311</v>
       </c>
       <c r="I18" t="n">
-        <v>67.28148333544418</v>
+        <v>67.17462233288244</v>
       </c>
     </row>
     <row r="19">
@@ -64800,16 +64800,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791461078074234</v>
+        <v>0.1785777444588313</v>
       </c>
       <c r="G19" t="n">
-        <v>22.82102775211677</v>
+        <v>22.81325473838447</v>
       </c>
       <c r="H19" t="n">
-        <v>10.1389322588922</v>
+        <v>10.10741586559885</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38051639889021</v>
+        <v>71.23486304365244</v>
       </c>
     </row>
     <row r="20">
@@ -64820,7 +64820,7 @@
         <v>55.28382386530438</v>
       </c>
       <c r="C20" t="n">
-        <v>45.88982572308112</v>
+        <v>45.88982572308111</v>
       </c>
       <c r="D20" t="n">
         <v>21.62635955077501</v>
@@ -64829,16 +64829,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1777364198105477</v>
+        <v>0.1769866115708724</v>
       </c>
       <c r="G20" t="n">
-        <v>20.13139519606449</v>
+        <v>20.12233483080168</v>
       </c>
       <c r="H20" t="n">
-        <v>8.635424151815768</v>
+        <v>8.600911195268834</v>
       </c>
       <c r="I20" t="n">
-        <v>68.49074435402642</v>
+        <v>68.30989703121922</v>
       </c>
     </row>
     <row r="21">
@@ -64846,7 +64846,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.92659596012754</v>
+        <v>66.92659596012756</v>
       </c>
       <c r="C21" t="n">
         <v>58.17856079522817</v>
@@ -64858,16 +64858,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2863725225401314</v>
+        <v>0.2856245632597402</v>
       </c>
       <c r="G21" t="n">
-        <v>20.19119448526846</v>
+        <v>20.18109254940811</v>
       </c>
       <c r="H21" t="n">
-        <v>14.76039989512165</v>
+        <v>14.72299045485265</v>
       </c>
       <c r="I21" t="n">
-        <v>90.67861727319803</v>
+        <v>90.50645663721339</v>
       </c>
     </row>
     <row r="22">
@@ -64887,16 +64887,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1314436715365735</v>
+        <v>0.1306926650014631</v>
       </c>
       <c r="G22" t="n">
-        <v>13.29023882647036</v>
+        <v>13.28099733701748</v>
       </c>
       <c r="H22" t="n">
-        <v>8.103924425365927</v>
+        <v>8.061651180820002</v>
       </c>
       <c r="I22" t="n">
-        <v>64.92628696761966</v>
+        <v>64.69947641848852</v>
       </c>
     </row>
     <row r="23">
@@ -64907,7 +64907,7 @@
         <v>50.29901465362654</v>
       </c>
       <c r="C23" t="n">
-        <v>53.18402154995243</v>
+        <v>53.18402154995244</v>
       </c>
       <c r="D23" t="n">
         <v>23.8755842652072</v>
@@ -64916,16 +64916,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2329523931859647</v>
+        <v>0.2324685734748389</v>
       </c>
       <c r="G23" t="n">
-        <v>18.94711229870876</v>
+        <v>18.94108465831535</v>
       </c>
       <c r="H23" t="n">
-        <v>11.06050351997514</v>
+        <v>11.03829267496991</v>
       </c>
       <c r="I23" t="n">
-        <v>91.74809375201914</v>
+        <v>91.61060090950625</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/newgen/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/China/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32773,7 +32773,7 @@
         <v>45.19757704076083</v>
       </c>
       <c r="C4" t="n">
-        <v>32.08151685015008</v>
+        <v>32.08151685015009</v>
       </c>
       <c r="D4" t="n">
         <v>16.96627847606666</v>
@@ -32799,28 +32799,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.66318340671934</v>
+        <v>56.66318340671928</v>
       </c>
       <c r="C5" t="n">
-        <v>48.9834831801393</v>
+        <v>48.9834831801392</v>
       </c>
       <c r="D5" t="n">
-        <v>38.40263794684009</v>
+        <v>38.40263794683999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2785523097587129</v>
+        <v>0.2785523097587123</v>
       </c>
       <c r="G5" t="n">
         <v>12.84054383004565</v>
       </c>
       <c r="H5" t="n">
-        <v>15.93387080332927</v>
+        <v>15.93387080332924</v>
       </c>
       <c r="I5" t="n">
-        <v>123.2651738480621</v>
+        <v>123.2651738480619</v>
       </c>
     </row>
     <row r="6">
@@ -32828,28 +32828,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>59.48780066952476</v>
+        <v>59.48780066952479</v>
       </c>
       <c r="C6" t="n">
-        <v>35.45290138448217</v>
+        <v>35.45290138448222</v>
       </c>
       <c r="D6" t="n">
-        <v>27.87154603746504</v>
+        <v>27.87154603746508</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1875077763882489</v>
+        <v>0.1875077763882493</v>
       </c>
       <c r="G6" t="n">
-        <v>21.76328936375396</v>
+        <v>21.76328936375395</v>
       </c>
       <c r="H6" t="n">
-        <v>11.79218738661476</v>
+        <v>11.79218738661479</v>
       </c>
       <c r="I6" t="n">
-        <v>93.8625374492122</v>
+        <v>93.86253744921233</v>
       </c>
     </row>
     <row r="7">
@@ -32857,28 +32857,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>46.79922255210388</v>
+        <v>46.79922255210393</v>
       </c>
       <c r="C7" t="n">
-        <v>32.99391502579982</v>
+        <v>32.99391502579988</v>
       </c>
       <c r="D7" t="n">
-        <v>20.76504167731373</v>
+        <v>20.76504167731377</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1502519519340263</v>
+        <v>0.1502519519340265</v>
       </c>
       <c r="G7" t="n">
         <v>9.445965879961674</v>
       </c>
       <c r="H7" t="n">
-        <v>8.588200767512852</v>
+        <v>8.588200767512857</v>
       </c>
       <c r="I7" t="n">
-        <v>85.87429293931953</v>
+        <v>85.87429293931959</v>
       </c>
     </row>
     <row r="8">
@@ -32886,10 +32886,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>41.90561708077418</v>
+        <v>41.90561708077416</v>
       </c>
       <c r="C8" t="n">
-        <v>37.71082212841093</v>
+        <v>37.71082212841092</v>
       </c>
       <c r="D8" t="n">
         <v>17.34381766899743</v>
@@ -32915,28 +32915,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>46.89074752801358</v>
+        <v>46.89074752801363</v>
       </c>
       <c r="C9" t="n">
-        <v>45.72627381043687</v>
+        <v>45.72627381043692</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8502208007436</v>
+        <v>25.85022080074365</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1816150043140526</v>
+        <v>0.1816150043140532</v>
       </c>
       <c r="G9" t="n">
         <v>12.90727736454832</v>
       </c>
       <c r="H9" t="n">
-        <v>9.363081924368363</v>
+        <v>9.363081924368386</v>
       </c>
       <c r="I9" t="n">
-        <v>81.42839444885267</v>
+        <v>81.42839444885279</v>
       </c>
     </row>
     <row r="10">
@@ -32944,13 +32944,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>41.14093720713825</v>
+        <v>41.14093720713826</v>
       </c>
       <c r="C10" t="n">
-        <v>27.38353052111378</v>
+        <v>27.38353052111379</v>
       </c>
       <c r="D10" t="n">
-        <v>20.95456158112781</v>
+        <v>20.95456158112782</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -32973,28 +32973,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>60.02865287104693</v>
+        <v>60.02865287104701</v>
       </c>
       <c r="C11" t="n">
-        <v>59.1771996615172</v>
+        <v>59.17719966151729</v>
       </c>
       <c r="D11" t="n">
-        <v>43.33356568551054</v>
+        <v>43.33356568551064</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3104972135717011</v>
+        <v>0.3104972135717018</v>
       </c>
       <c r="G11" t="n">
-        <v>18.14627339412494</v>
+        <v>18.14627339412493</v>
       </c>
       <c r="H11" t="n">
-        <v>18.84346729537693</v>
+        <v>18.84346729537696</v>
       </c>
       <c r="I11" t="n">
-        <v>149.805610459436</v>
+        <v>149.8056104594363</v>
       </c>
     </row>
     <row r="12">
@@ -33005,25 +33005,25 @@
         <v>42.41664905483326</v>
       </c>
       <c r="C12" t="n">
-        <v>28.99907521150783</v>
+        <v>28.9990752115078</v>
       </c>
       <c r="D12" t="n">
-        <v>18.6678666232248</v>
+        <v>18.66786662322479</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1396444996376504</v>
+        <v>0.1396444996376501</v>
       </c>
       <c r="G12" t="n">
         <v>12.13203132994161</v>
       </c>
       <c r="H12" t="n">
-        <v>7.856961560938256</v>
+        <v>7.856961560938239</v>
       </c>
       <c r="I12" t="n">
-        <v>68.38445209758612</v>
+        <v>68.38445209758605</v>
       </c>
     </row>
     <row r="13">
@@ -33031,28 +33031,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>53.91163601257457</v>
+        <v>53.91163601257459</v>
       </c>
       <c r="C13" t="n">
-        <v>43.22305870433349</v>
+        <v>43.22305870433354</v>
       </c>
       <c r="D13" t="n">
-        <v>26.21637204435326</v>
+        <v>26.2163720443533</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1820469010507466</v>
+        <v>0.1820469010507468</v>
       </c>
       <c r="G13" t="n">
         <v>16.27986083454413</v>
       </c>
       <c r="H13" t="n">
-        <v>10.87292382812919</v>
+        <v>10.87292382812921</v>
       </c>
       <c r="I13" t="n">
-        <v>77.68909858329313</v>
+        <v>77.6890985832932</v>
       </c>
     </row>
     <row r="14">
@@ -33060,28 +33060,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.11470359964837</v>
+        <v>55.11470359964829</v>
       </c>
       <c r="C14" t="n">
-        <v>26.48550137185867</v>
+        <v>26.48550137185857</v>
       </c>
       <c r="D14" t="n">
-        <v>26.25422414021045</v>
+        <v>26.25422414021035</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2210469701598947</v>
+        <v>0.2210469701598941</v>
       </c>
       <c r="G14" t="n">
-        <v>8.162240130250522</v>
+        <v>8.162240130250517</v>
       </c>
       <c r="H14" t="n">
-        <v>12.5169896780025</v>
+        <v>12.51698967800247</v>
       </c>
       <c r="I14" t="n">
-        <v>88.09419678091912</v>
+        <v>88.09419678091898</v>
       </c>
     </row>
     <row r="15">
@@ -33089,13 +33089,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.51099219815674</v>
+        <v>45.51099219815676</v>
       </c>
       <c r="C15" t="n">
-        <v>48.63211421420661</v>
+        <v>48.63211421420663</v>
       </c>
       <c r="D15" t="n">
-        <v>21.62276852364466</v>
+        <v>21.62276852364467</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -33118,10 +33118,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>57.02402693686466</v>
+        <v>57.02402693686464</v>
       </c>
       <c r="C16" t="n">
-        <v>29.41010875322917</v>
+        <v>29.41010875322916</v>
       </c>
       <c r="D16" t="n">
         <v>26.05962256691421</v>
@@ -33147,13 +33147,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>54.56311841389078</v>
+        <v>54.56311841389075</v>
       </c>
       <c r="C17" t="n">
-        <v>33.03173174339923</v>
+        <v>33.03173174339922</v>
       </c>
       <c r="D17" t="n">
-        <v>27.98986847194627</v>
+        <v>27.98986847194626</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -33162,7 +33162,7 @@
         <v>0.2207647040920435</v>
       </c>
       <c r="G17" t="n">
-        <v>11.09779300098287</v>
+        <v>11.09779300098286</v>
       </c>
       <c r="H17" t="n">
         <v>13.58373754214308</v>
@@ -33176,10 +33176,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>62.89547303229336</v>
+        <v>62.89547303229335</v>
       </c>
       <c r="C18" t="n">
-        <v>36.7524697098465</v>
+        <v>36.75246970984651</v>
       </c>
       <c r="D18" t="n">
         <v>21.40197844608306</v>
@@ -33197,7 +33197,7 @@
         <v>9.444582116801742</v>
       </c>
       <c r="I18" t="n">
-        <v>68.94312721395897</v>
+        <v>68.94312721395896</v>
       </c>
     </row>
     <row r="19">
@@ -33205,7 +33205,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>59.39392603917842</v>
+        <v>59.39392603917843</v>
       </c>
       <c r="C19" t="n">
         <v>23.66392123156549</v>
@@ -33220,7 +33220,7 @@
         <v>0.1433352512900181</v>
       </c>
       <c r="G19" t="n">
-        <v>22.12928507704888</v>
+        <v>22.1292850770489</v>
       </c>
       <c r="H19" t="n">
         <v>9.594962455831201</v>
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.28382386530438</v>
+        <v>55.28382386530433</v>
       </c>
       <c r="C20" t="n">
-        <v>45.88982572308111</v>
+        <v>45.88982572308108</v>
       </c>
       <c r="D20" t="n">
-        <v>21.62635955077501</v>
+        <v>21.62635955077497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1364281782028425</v>
+        <v>0.1364281782028424</v>
       </c>
       <c r="G20" t="n">
         <v>19.28267748738538</v>
       </c>
       <c r="H20" t="n">
-        <v>8.110237533298401</v>
+        <v>8.110237533298395</v>
       </c>
       <c r="I20" t="n">
-        <v>70.22095769823362</v>
+        <v>70.22095769823359</v>
       </c>
     </row>
     <row r="21">
@@ -33263,13 +33263,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.92659596012756</v>
+        <v>66.92659596012754</v>
       </c>
       <c r="C21" t="n">
         <v>58.17856079522817</v>
       </c>
       <c r="D21" t="n">
-        <v>34.46936007232768</v>
+        <v>34.46936007232767</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>0.2460153012087683</v>
       </c>
       <c r="G21" t="n">
-        <v>19.45389578520902</v>
+        <v>19.45389578520903</v>
       </c>
       <c r="H21" t="n">
         <v>14.29158324321402</v>
@@ -33292,10 +33292,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>40.21557115321591</v>
+        <v>40.2155711532159</v>
       </c>
       <c r="C22" t="n">
-        <v>45.84434879749229</v>
+        <v>45.84434879749227</v>
       </c>
       <c r="D22" t="n">
         <v>19.24826478459181</v>
@@ -33321,19 +33321,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.29901465362654</v>
+        <v>50.29901465362656</v>
       </c>
       <c r="C23" t="n">
-        <v>53.18402154995244</v>
+        <v>53.18402154995245</v>
       </c>
       <c r="D23" t="n">
-        <v>23.8755842652072</v>
+        <v>23.87558426520721</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1988282150543257</v>
+        <v>0.1988282150543256</v>
       </c>
       <c r="G23" t="n">
         <v>18.21080268834731</v>
@@ -33342,7 +33342,7 @@
         <v>10.57945925328936</v>
       </c>
       <c r="I23" t="n">
-        <v>93.82328033381016</v>
+        <v>93.82328033381015</v>
       </c>
     </row>
   </sheetData>
@@ -64356,7 +64356,7 @@
         <v>45.19757704076083</v>
       </c>
       <c r="C4" t="n">
-        <v>32.08151685015008</v>
+        <v>32.08151685015009</v>
       </c>
       <c r="D4" t="n">
         <v>16.96627847606666</v>
@@ -64382,28 +64382,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.66318340671934</v>
+        <v>56.66318340671928</v>
       </c>
       <c r="C5" t="n">
-        <v>48.9834831801393</v>
+        <v>48.9834831801392</v>
       </c>
       <c r="D5" t="n">
-        <v>38.40263794684009</v>
+        <v>38.40263794683999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3154704438356482</v>
+        <v>0.3154704438356477</v>
       </c>
       <c r="G5" t="n">
         <v>13.643280575502</v>
       </c>
       <c r="H5" t="n">
-        <v>16.42496285980211</v>
+        <v>16.42496285980208</v>
       </c>
       <c r="I5" t="n">
-        <v>121.6399737194301</v>
+        <v>121.6399737194299</v>
       </c>
     </row>
     <row r="6">
@@ -64411,28 +64411,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>59.48780066952476</v>
+        <v>59.48780066952479</v>
       </c>
       <c r="C6" t="n">
-        <v>35.45290138448217</v>
+        <v>35.45290138448222</v>
       </c>
       <c r="D6" t="n">
-        <v>27.87154603746504</v>
+        <v>27.87154603746508</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2270625807664196</v>
+        <v>0.22706258076642</v>
       </c>
       <c r="G6" t="n">
         <v>22.45531772626628</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2722902732284</v>
+        <v>12.27229027322843</v>
       </c>
       <c r="I6" t="n">
-        <v>92.42446058366147</v>
+        <v>92.42446058366163</v>
       </c>
     </row>
     <row r="7">
@@ -64440,28 +64440,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>46.79922255210388</v>
+        <v>46.79922255210393</v>
       </c>
       <c r="C7" t="n">
-        <v>32.99391502579982</v>
+        <v>32.99391502579988</v>
       </c>
       <c r="D7" t="n">
-        <v>20.76504167731373</v>
+        <v>20.76504167731377</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1873695575257164</v>
+        <v>0.1873695575257165</v>
       </c>
       <c r="G7" t="n">
         <v>10.27586307943243</v>
       </c>
       <c r="H7" t="n">
-        <v>9.076812701284256</v>
+        <v>9.076812701284263</v>
       </c>
       <c r="I7" t="n">
-        <v>84.18225539254681</v>
+        <v>84.18225539254685</v>
       </c>
     </row>
     <row r="8">
@@ -64469,10 +64469,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>41.90561708077418</v>
+        <v>41.90561708077416</v>
       </c>
       <c r="C8" t="n">
-        <v>37.71082212841093</v>
+        <v>37.71082212841092</v>
       </c>
       <c r="D8" t="n">
         <v>17.34381766899743</v>
@@ -64498,28 +64498,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>46.89074752801358</v>
+        <v>46.89074752801363</v>
       </c>
       <c r="C9" t="n">
-        <v>45.72627381043687</v>
+        <v>45.72627381043692</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8502208007436</v>
+        <v>25.85022080074365</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2173451846646783</v>
+        <v>0.2173451846646789</v>
       </c>
       <c r="G9" t="n">
         <v>13.68445156266456</v>
       </c>
       <c r="H9" t="n">
-        <v>9.810001803234865</v>
+        <v>9.810001803234888</v>
       </c>
       <c r="I9" t="n">
-        <v>79.47170817238054</v>
+        <v>79.47170817238069</v>
       </c>
     </row>
     <row r="10">
@@ -64527,13 +64527,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>41.14093720713825</v>
+        <v>41.14093720713826</v>
       </c>
       <c r="C10" t="n">
-        <v>27.38353052111378</v>
+        <v>27.38353052111379</v>
       </c>
       <c r="D10" t="n">
-        <v>20.95456158112781</v>
+        <v>20.95456158112782</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -64548,7 +64548,7 @@
         <v>8.876652161073322</v>
       </c>
       <c r="I10" t="n">
-        <v>70.40035524348353</v>
+        <v>70.4003552434835</v>
       </c>
     </row>
     <row r="11">
@@ -64556,28 +64556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>60.02865287104693</v>
+        <v>60.02865287104701</v>
       </c>
       <c r="C11" t="n">
-        <v>59.1771996615172</v>
+        <v>59.17719966151729</v>
       </c>
       <c r="D11" t="n">
-        <v>43.33356568551054</v>
+        <v>43.33356568551064</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3498434881312074</v>
+        <v>0.3498434881312081</v>
       </c>
       <c r="G11" t="n">
-        <v>18.90207130537975</v>
+        <v>18.90207130537974</v>
       </c>
       <c r="H11" t="n">
-        <v>19.38054083974292</v>
+        <v>19.38054083974295</v>
       </c>
       <c r="I11" t="n">
-        <v>148.1014319814079</v>
+        <v>148.1014319814081</v>
       </c>
     </row>
     <row r="12">
@@ -64588,25 +64588,25 @@
         <v>42.41664905483326</v>
       </c>
       <c r="C12" t="n">
-        <v>28.99907521150783</v>
+        <v>28.9990752115078</v>
       </c>
       <c r="D12" t="n">
-        <v>18.6678666232248</v>
+        <v>18.66786662322479</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1772865051853647</v>
+        <v>0.1772865051853643</v>
       </c>
       <c r="G12" t="n">
         <v>12.82318538152914</v>
       </c>
       <c r="H12" t="n">
-        <v>8.354438595938934</v>
+        <v>8.354438595938918</v>
       </c>
       <c r="I12" t="n">
-        <v>66.57035186741219</v>
+        <v>66.5703518674121</v>
       </c>
     </row>
     <row r="13">
@@ -64614,28 +64614,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>53.91163601257457</v>
+        <v>53.91163601257459</v>
       </c>
       <c r="C13" t="n">
-        <v>43.22305870433349</v>
+        <v>43.22305870433354</v>
       </c>
       <c r="D13" t="n">
-        <v>26.21637204435326</v>
+        <v>26.2163720443533</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2167965855356208</v>
+        <v>0.2167965855356211</v>
       </c>
       <c r="G13" t="n">
         <v>17.02524341962513</v>
       </c>
       <c r="H13" t="n">
-        <v>11.32320957172557</v>
+        <v>11.32320957172558</v>
       </c>
       <c r="I13" t="n">
-        <v>76.0926443625137</v>
+        <v>76.09264436251377</v>
       </c>
     </row>
     <row r="14">
@@ -64643,28 +64643,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.11470359964837</v>
+        <v>55.11470359964829</v>
       </c>
       <c r="C14" t="n">
-        <v>26.48550137185867</v>
+        <v>26.48550137185857</v>
       </c>
       <c r="D14" t="n">
-        <v>26.25422414021045</v>
+        <v>26.25422414021035</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2605984461109437</v>
+        <v>0.2605984461109431</v>
       </c>
       <c r="G14" t="n">
-        <v>8.939008675622217</v>
+        <v>8.939008675622212</v>
       </c>
       <c r="H14" t="n">
-        <v>13.01438651209772</v>
+        <v>13.01438651209768</v>
       </c>
       <c r="I14" t="n">
-        <v>86.67778613621593</v>
+        <v>86.67778613621579</v>
       </c>
     </row>
     <row r="15">
@@ -64672,13 +64672,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.51099219815674</v>
+        <v>45.51099219815676</v>
       </c>
       <c r="C15" t="n">
-        <v>48.63211421420661</v>
+        <v>48.63211421420663</v>
       </c>
       <c r="D15" t="n">
-        <v>21.62276852364466</v>
+        <v>21.62276852364467</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -64701,10 +64701,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>57.02402693686466</v>
+        <v>57.02402693686464</v>
       </c>
       <c r="C16" t="n">
-        <v>29.41010875322917</v>
+        <v>29.41010875322916</v>
       </c>
       <c r="D16" t="n">
         <v>26.05962256691421</v>
@@ -64730,13 +64730,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>54.56311841389078</v>
+        <v>54.56311841389075</v>
       </c>
       <c r="C17" t="n">
-        <v>33.03173174339923</v>
+        <v>33.03173174339922</v>
       </c>
       <c r="D17" t="n">
-        <v>27.98986847194627</v>
+        <v>27.98986847194626</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -64745,7 +64745,7 @@
         <v>0.2569528920747687</v>
       </c>
       <c r="G17" t="n">
-        <v>11.89116467163514</v>
+        <v>11.89116467163513</v>
       </c>
       <c r="H17" t="n">
         <v>14.04560976998763</v>
@@ -64759,10 +64759,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>62.89547303229336</v>
+        <v>62.89547303229335</v>
       </c>
       <c r="C18" t="n">
-        <v>36.7524697098465</v>
+        <v>36.75246970984651</v>
       </c>
       <c r="D18" t="n">
         <v>21.40197844608306</v>
@@ -64788,7 +64788,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>59.39392603917842</v>
+        <v>59.39392603917843</v>
       </c>
       <c r="C19" t="n">
         <v>23.66392123156549</v>
@@ -64803,7 +64803,7 @@
         <v>0.1785777444588313</v>
       </c>
       <c r="G19" t="n">
-        <v>22.81325473838447</v>
+        <v>22.81325473838448</v>
       </c>
       <c r="H19" t="n">
         <v>10.10741586559885</v>
@@ -64817,13 +64817,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.28382386530438</v>
+        <v>55.28382386530433</v>
       </c>
       <c r="C20" t="n">
-        <v>45.88982572308111</v>
+        <v>45.88982572308108</v>
       </c>
       <c r="D20" t="n">
-        <v>21.62635955077501</v>
+        <v>21.62635955077497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -64832,13 +64832,13 @@
         <v>0.1769866115708724</v>
       </c>
       <c r="G20" t="n">
-        <v>20.12233483080168</v>
+        <v>20.12233483080169</v>
       </c>
       <c r="H20" t="n">
-        <v>8.600911195268834</v>
+        <v>8.600911195268829</v>
       </c>
       <c r="I20" t="n">
-        <v>68.30989703121922</v>
+        <v>68.30989703121919</v>
       </c>
     </row>
     <row r="21">
@@ -64846,13 +64846,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.92659596012756</v>
+        <v>66.92659596012754</v>
       </c>
       <c r="C21" t="n">
         <v>58.17856079522817</v>
       </c>
       <c r="D21" t="n">
-        <v>34.46936007232768</v>
+        <v>34.46936007232767</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -64861,7 +64861,7 @@
         <v>0.2856245632597402</v>
       </c>
       <c r="G21" t="n">
-        <v>20.18109254940811</v>
+        <v>20.18109254940812</v>
       </c>
       <c r="H21" t="n">
         <v>14.72299045485265</v>
@@ -64875,10 +64875,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>40.21557115321591</v>
+        <v>40.2155711532159</v>
       </c>
       <c r="C22" t="n">
-        <v>45.84434879749229</v>
+        <v>45.84434879749227</v>
       </c>
       <c r="D22" t="n">
         <v>19.24826478459181</v>
@@ -64904,19 +64904,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.29901465362654</v>
+        <v>50.29901465362656</v>
       </c>
       <c r="C23" t="n">
-        <v>53.18402154995244</v>
+        <v>53.18402154995245</v>
       </c>
       <c r="D23" t="n">
-        <v>23.8755842652072</v>
+        <v>23.87558426520721</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2324685734748389</v>
+        <v>0.2324685734748388</v>
       </c>
       <c r="G23" t="n">
         <v>18.94108465831535</v>
@@ -64925,7 +64925,7 @@
         <v>11.03829267496991</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61060090950625</v>
+        <v>91.61060090950622</v>
       </c>
     </row>
   </sheetData>
